--- a/test cases/import bills test case.xlsx
+++ b/test cases/import bills test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BB0A6-B436-4B34-B1CC-E17265386D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3322EB-9B26-4737-98B3-E330BA7EE312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <r>
       <t>System Name</t>
@@ -175,21 +175,6 @@
   </si>
   <si>
     <t>should prevent the user to pay it, because it is 'free of payment'</t>
-  </si>
-  <si>
-    <t>import bills with delivery against='free of payment'.</t>
-  </si>
-  <si>
-    <t>the field from event should be disabled for this type of payment.</t>
-  </si>
-  <si>
-    <t>the case in which delivery against= free of payment then the
- field 'from event ' should be disabled because we don't have
- payment absolutely.</t>
-  </si>
-  <si>
-    <t>custom certificate security charge should be optional 
-(and its percentage should be configurable).</t>
   </si>
   <si>
     <t>should be available in advise of payment event.
@@ -235,15 +220,186 @@
   <si>
     <t>Latest test Date</t>
   </si>
+  <si>
+    <t>primary details event, with delivery against='payment'</t>
+  </si>
+  <si>
+    <t>fields 'from event' and 'Due Date' should be disabled</t>
+  </si>
+  <si>
+    <t>primary details event, adding document details.</t>
+  </si>
+  <si>
+    <t>in 'Document Details' section,description field, we need 'invoice' option to be added</t>
+  </si>
+  <si>
+    <t>this field is related to BIC code of the bank, so it should be not editable</t>
+  </si>
+  <si>
+    <t>primary details event, 'beneficiary bank' field.</t>
+  </si>
+  <si>
+    <t>the name of sections 'charges' &amp; 'drawer details' should be
+reversed(in vice versa)</t>
+  </si>
+  <si>
+    <t>primary details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary details </t>
+  </si>
+  <si>
+    <t>the label of fields '(20)Sender's Reference No./SWIFT'  &amp;
+'(21)Reference No./Bill No.', to be 'Sender's Reference No' &amp; 
+'Reference No./Bill No.'.</t>
+  </si>
+  <si>
+    <t>document details: we have the following scenario:
+as you know, the document usually recieved in two sets(or two mails) or more, so we need for each document to mention the original and the copies in each mail separately, this case is not possible to do now.
+so i can suggest the best way to implement it,
+we want to change the field 'number of set' to be drop list and its name 'mail number' or 'set number'.
+in this case we can input the details of specific document, by selecting the required document from description field, and then select the mail number from drop list then enter the original and the copy of received and office copy and add them,and then repeat the input for the second mail.</t>
+  </si>
+  <si>
+    <t>address2 &amp; address3 to be optional</t>
+  </si>
+  <si>
+    <t>bank team usually adds multiple modes of transport, so we need list of check box to select multiple modes.</t>
+  </si>
+  <si>
+    <t>primary details, mode of transport, filling multiple mode of
+ transport</t>
+  </si>
+  <si>
+    <t>primary details,'document type' field</t>
+  </si>
+  <si>
+    <t>to be optional</t>
+  </si>
+  <si>
+    <t>from port' label to be 'from' &amp; 'to port' label to be 'to'.
+'goods description' label to be 'goods category'.</t>
+  </si>
+  <si>
+    <t>the values of 'Account Name' column in voucher: for debited customer libility account to be'customer liability account', for credited correspondent liability account to be 'correspondent liability account'.</t>
+  </si>
+  <si>
+    <t>primary details, search for specific bill</t>
+  </si>
+  <si>
+    <t>the 'Bill No' column is always blank.</t>
+  </si>
+  <si>
+    <t>the case in which delivery against= free of payment then the
+ field 'from event ' and 'due date' should be disabled because we don't havepayment absolutely.</t>
+  </si>
+  <si>
+    <t>primary details, non finance payment.</t>
+  </si>
+  <si>
+    <t>for non finance, the field link facility should be disabled.</t>
+  </si>
+  <si>
+    <t>advice of acceptance MT412</t>
+  </si>
+  <si>
+    <t>all the disabled field to be in gray color.</t>
+  </si>
+  <si>
+    <t>the OUP charges need configuration.</t>
+  </si>
+  <si>
+    <t>advice of acceptance MT412.</t>
+  </si>
+  <si>
+    <t>advice of payment, with MT202 option to pay.</t>
+  </si>
+  <si>
+    <t>53a, 54a, 57a, 58a, all of them are not reflected correctly to MT202 message.</t>
+  </si>
+  <si>
+    <t>advice of payment, with MT400 option to pay.</t>
+  </si>
+  <si>
+    <t>advice of payment.</t>
+  </si>
+  <si>
+    <t>advice of non-acceptance after we have already paied</t>
+  </si>
+  <si>
+    <t>should warn me(or prevent the user to apply like this scenario).</t>
+  </si>
+  <si>
+    <t>advice of non-acceptance MT416.</t>
+  </si>
+  <si>
+    <t>all disabled fields in 'Bill Lodgment details' section to be in gray color.</t>
+  </si>
+  <si>
+    <t>beneficiary bank details should be mandatory.</t>
+  </si>
+  <si>
+    <t>acknowledgment MT410(normal case)</t>
+  </si>
+  <si>
+    <t>charges need confugration, no currency, no debit acccount,
+no rate type, no exchange rate.</t>
+  </si>
+  <si>
+    <t>53a, 54a, 57a, 58a, all of them are not reflected correctly to
+ MT400 message.</t>
+  </si>
+  <si>
+    <t>primary details event, filling the mail date and decision date by advaced date</t>
+  </si>
+  <si>
+    <t>it should warn me, that this date in future.</t>
+  </si>
+  <si>
+    <t>primary details event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom certificate security charge should be removed from primary details event and place it in payment. </t>
+  </si>
+  <si>
+    <t>INCO term field to be removed</t>
+  </si>
+  <si>
+    <t>Import LIC/OGL, License Number, License Date, 
+Permit Number, Permit Issue , all of them to be moved to payment event, not used in primary details event.</t>
+  </si>
+  <si>
+    <t>primary details event, receipt date field, fill it with any previous date.</t>
+  </si>
+  <si>
+    <t>it prevents me to fill it with previous date(this date usually is the same as mail date), and give me this warning'receipt date can not be less than booking date'.</t>
+  </si>
+  <si>
+    <t>document type field to be optional.</t>
+  </si>
+  <si>
+    <t>the label 'board date', change it to 'shipment date'.</t>
+  </si>
+  <si>
+    <t>we are in need to 'bill of lading date'field to be added.</t>
+  </si>
+  <si>
+    <t>advising and postage commission to be found by default in OUP charge.</t>
+  </si>
+  <si>
+    <t>in purpose code field, just we need a single option 'goods value'.</t>
+  </si>
+  <si>
+    <t>Bill No format is not correct, it should be like this: IDC0106/0003/24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -293,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +492,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -447,34 +609,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -771,76 +937,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="56.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -851,19 +1017,19 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10">
         <v>45326</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>45349</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>45349</v>
       </c>
     </row>
@@ -874,19 +1040,19 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10">
         <v>45326</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>45349</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>45347</v>
       </c>
     </row>
@@ -897,13 +1063,13 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
         <v>45326</v>
       </c>
     </row>
@@ -912,15 +1078,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>45326</v>
       </c>
     </row>
@@ -931,13 +1097,13 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>45326</v>
       </c>
     </row>
@@ -948,13 +1114,13 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>45327</v>
       </c>
     </row>
@@ -965,13 +1131,13 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>45328</v>
       </c>
     </row>
@@ -982,13 +1148,13 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>45328</v>
       </c>
     </row>
@@ -999,13 +1165,13 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>45328</v>
       </c>
     </row>
@@ -1016,13 +1182,13 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>45328</v>
       </c>
     </row>
@@ -1033,13 +1199,13 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>45333</v>
       </c>
     </row>
@@ -1050,13 +1216,13 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>45336</v>
       </c>
     </row>
@@ -1067,120 +1233,120 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>45336</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>45349</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>45349</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="11">
         <v>45340</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>45340</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="14">
-        <v>45340</v>
-      </c>
-      <c r="F19" s="9">
-        <v>45340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45347</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="13">
+        <v>34</v>
+      </c>
+      <c r="E20" s="10">
         <v>45347</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>45347</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="45" customHeight="1">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="11">
         <v>45347</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>45347</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" customHeight="1">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="14">
-        <v>45347</v>
-      </c>
-      <c r="F22" s="9">
-        <v>45347</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45349</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45349</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1188,19 +1354,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="13">
-        <v>45349</v>
-      </c>
-      <c r="F23" s="9">
-        <v>45349</v>
+        <v>47</v>
+      </c>
+      <c r="E23" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45354</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1208,19 +1374,659 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="195">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="10">
+        <v>45354</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="E24" s="13">
-        <v>45347</v>
-      </c>
-      <c r="F24" s="9">
-        <v>45349</v>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F45" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F46" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F51" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F52" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="10">
+        <v>45356</v>
+      </c>
+      <c r="F54" s="6">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="10">
+        <v>45357</v>
+      </c>
+      <c r="F55" s="6">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="10">
+        <v>45357</v>
+      </c>
+      <c r="F56" s="6">
+        <v>45357</v>
       </c>
     </row>
   </sheetData>
